--- a/data/pca/factorExposure/factorExposure_2009-02-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01670998211441561</v>
+        <v>0.01530971243003194</v>
       </c>
       <c r="C2">
-        <v>-0.01059284840813761</v>
+        <v>0.01161492065351879</v>
       </c>
       <c r="D2">
-        <v>-0.01569310231716434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01517641368379248</v>
+      </c>
+      <c r="E2">
+        <v>0.0002856602437554293</v>
+      </c>
+      <c r="F2">
+        <v>0.006068224994275195</v>
+      </c>
+      <c r="G2">
+        <v>-0.01875261447481227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08142436383727902</v>
+        <v>0.08383264537061375</v>
       </c>
       <c r="C4">
-        <v>-0.08027108587659493</v>
+        <v>0.08665334870338338</v>
       </c>
       <c r="D4">
-        <v>0.06738024905277934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06727778157080735</v>
+      </c>
+      <c r="E4">
+        <v>-0.003501687712898483</v>
+      </c>
+      <c r="F4">
+        <v>0.03881170762432603</v>
+      </c>
+      <c r="G4">
+        <v>-0.03119007209926417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002976615275924282</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.002056574670620633</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-6.428416590686004e-05</v>
+      </c>
+      <c r="E5">
+        <v>0.002651960883812105</v>
+      </c>
+      <c r="F5">
+        <v>-0.002552411418786447</v>
+      </c>
+      <c r="G5">
+        <v>0.002852933990256383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.167995134932762</v>
+        <v>0.1704402136983444</v>
       </c>
       <c r="C6">
-        <v>0.01836298784298823</v>
+        <v>-0.01008275021115207</v>
       </c>
       <c r="D6">
-        <v>0.05647270489597946</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05890922542126567</v>
+      </c>
+      <c r="E6">
+        <v>-0.01563405298466168</v>
+      </c>
+      <c r="F6">
+        <v>-0.05870171591891737</v>
+      </c>
+      <c r="G6">
+        <v>0.009445114401297921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05480397265397949</v>
+        <v>0.0589145353037375</v>
       </c>
       <c r="C7">
-        <v>-0.0584254487102596</v>
+        <v>0.06350210833310743</v>
       </c>
       <c r="D7">
-        <v>0.05042584739167614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05906553633815035</v>
+      </c>
+      <c r="E7">
+        <v>-0.04208508593028453</v>
+      </c>
+      <c r="F7">
+        <v>0.06729900192543588</v>
+      </c>
+      <c r="G7">
+        <v>-0.04328705549341355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05664270249798231</v>
+        <v>0.05304456819276943</v>
       </c>
       <c r="C8">
-        <v>-0.04476227475324102</v>
+        <v>0.0460534900728662</v>
       </c>
       <c r="D8">
-        <v>-0.02525676097143948</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02532230217798726</v>
+      </c>
+      <c r="E8">
+        <v>0.03023810033847288</v>
+      </c>
+      <c r="F8">
+        <v>0.04059830938844179</v>
+      </c>
+      <c r="G8">
+        <v>0.006610436981617932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06098357441263148</v>
+        <v>0.06467433178702213</v>
       </c>
       <c r="C9">
-        <v>-0.0869864978138144</v>
+        <v>0.09125147888266445</v>
       </c>
       <c r="D9">
-        <v>0.09142296731346736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08849343796486897</v>
+      </c>
+      <c r="E9">
+        <v>-0.006349122801463327</v>
+      </c>
+      <c r="F9">
+        <v>0.06166071119702759</v>
+      </c>
+      <c r="G9">
+        <v>-0.004788670629456067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1075973807906411</v>
+        <v>0.09979202593031024</v>
       </c>
       <c r="C10">
-        <v>0.1472567660117501</v>
+        <v>-0.1397035377058924</v>
       </c>
       <c r="D10">
-        <v>-0.101214430693589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09216400797138806</v>
+      </c>
+      <c r="E10">
+        <v>-0.007437473721677329</v>
+      </c>
+      <c r="F10">
+        <v>0.04505539988061861</v>
+      </c>
+      <c r="G10">
+        <v>0.005040855767058356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07886777198485717</v>
+        <v>0.07687726425182467</v>
       </c>
       <c r="C11">
-        <v>-0.1289065951117749</v>
+        <v>0.1289611328703627</v>
       </c>
       <c r="D11">
-        <v>0.05861578474092352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05054449232811022</v>
+      </c>
+      <c r="E11">
+        <v>0.01719431475113578</v>
+      </c>
+      <c r="F11">
+        <v>0.07882766241438746</v>
+      </c>
+      <c r="G11">
+        <v>-0.008811485521825977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08274849775411085</v>
+        <v>0.07875791082888461</v>
       </c>
       <c r="C12">
-        <v>-0.1480971245761345</v>
+        <v>0.1496603801774373</v>
       </c>
       <c r="D12">
-        <v>0.06397217664880987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05973854739400209</v>
+      </c>
+      <c r="E12">
+        <v>0.00861341789186563</v>
+      </c>
+      <c r="F12">
+        <v>0.08620513981708752</v>
+      </c>
+      <c r="G12">
+        <v>-0.01143088388573157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04225775013360723</v>
+        <v>0.0425518804560309</v>
       </c>
       <c r="C13">
-        <v>-0.06459800720628986</v>
+        <v>0.07212102896029632</v>
       </c>
       <c r="D13">
-        <v>0.03338374425242776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03313795551834631</v>
+      </c>
+      <c r="E13">
+        <v>-0.005006055232787442</v>
+      </c>
+      <c r="F13">
+        <v>0.07793250049752325</v>
+      </c>
+      <c r="G13">
+        <v>-0.01162968016996306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01943559252676106</v>
+        <v>0.02278017041889336</v>
       </c>
       <c r="C14">
-        <v>-0.04269034984194937</v>
+        <v>0.04300605233466417</v>
       </c>
       <c r="D14">
-        <v>0.05268107431121535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0474163316736937</v>
+      </c>
+      <c r="E14">
+        <v>0.0113165619206301</v>
+      </c>
+      <c r="F14">
+        <v>0.085323968042867</v>
+      </c>
+      <c r="G14">
+        <v>0.002357281932317376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03124088778418112</v>
+        <v>0.03345509097884161</v>
       </c>
       <c r="C15">
-        <v>-0.05642415795022551</v>
+        <v>0.05582057177693919</v>
       </c>
       <c r="D15">
-        <v>0.04645999602469169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04246735259541261</v>
+      </c>
+      <c r="E15">
+        <v>-0.0091578592192222</v>
+      </c>
+      <c r="F15">
+        <v>0.03276002715480469</v>
+      </c>
+      <c r="G15">
+        <v>0.009505800135616183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05728959561359542</v>
+        <v>0.0575425152358592</v>
       </c>
       <c r="C16">
-        <v>-0.1442788387472202</v>
+        <v>0.1442139464535589</v>
       </c>
       <c r="D16">
-        <v>0.07139318879204838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06257311409820832</v>
+      </c>
+      <c r="E16">
+        <v>0.032340616804077</v>
+      </c>
+      <c r="F16">
+        <v>0.0810285661073963</v>
+      </c>
+      <c r="G16">
+        <v>-0.01360630205430149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.005195125804337203</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004726913627536882</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001707861073943565</v>
+      </c>
+      <c r="E17">
+        <v>0.009804904217787605</v>
+      </c>
+      <c r="F17">
+        <v>-0.006002087073650031</v>
+      </c>
+      <c r="G17">
+        <v>0.0159912830579871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03534047004184074</v>
+        <v>0.05136373043999509</v>
       </c>
       <c r="C18">
-        <v>-0.04515992709004829</v>
+        <v>0.04006051474848593</v>
       </c>
       <c r="D18">
-        <v>-0.004124469797706002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.009886610090997231</v>
+      </c>
+      <c r="E18">
+        <v>0.00337644874270589</v>
+      </c>
+      <c r="F18">
+        <v>-0.04591287601386491</v>
+      </c>
+      <c r="G18">
+        <v>0.009029716676954911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05639717972982963</v>
+        <v>0.05675509825532184</v>
       </c>
       <c r="C20">
-        <v>-0.0930556912898606</v>
+        <v>0.09289182472725915</v>
       </c>
       <c r="D20">
-        <v>0.07604266933404241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07377502257243544</v>
+      </c>
+      <c r="E20">
+        <v>0.02106785144121186</v>
+      </c>
+      <c r="F20">
+        <v>0.07200923536853812</v>
+      </c>
+      <c r="G20">
+        <v>0.004487845488564159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04223575574559922</v>
+        <v>0.04430028024127661</v>
       </c>
       <c r="C21">
-        <v>-0.05681425210246739</v>
+        <v>0.05474573140201894</v>
       </c>
       <c r="D21">
-        <v>0.005330283686050381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.003182837247977123</v>
+      </c>
+      <c r="E21">
+        <v>-0.007777586493473037</v>
+      </c>
+      <c r="F21">
+        <v>0.07611842808922605</v>
+      </c>
+      <c r="G21">
+        <v>-0.02746137852561732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04504215157032927</v>
+        <v>0.04364990136061435</v>
       </c>
       <c r="C22">
-        <v>-0.02076323033498922</v>
+        <v>0.0229419537769889</v>
       </c>
       <c r="D22">
-        <v>-0.01518948667936095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03900954869433102</v>
+      </c>
+      <c r="E22">
+        <v>0.1285771389615599</v>
+      </c>
+      <c r="F22">
+        <v>-0.0232235340960396</v>
+      </c>
+      <c r="G22">
+        <v>-0.01263221456348138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04505155318160111</v>
+        <v>0.04365789385144087</v>
       </c>
       <c r="C23">
-        <v>-0.02075542259296234</v>
+        <v>0.02293525429440339</v>
       </c>
       <c r="D23">
-        <v>-0.01521614131015466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03903890571064504</v>
+      </c>
+      <c r="E23">
+        <v>0.1286111262337149</v>
+      </c>
+      <c r="F23">
+        <v>-0.02321557477094517</v>
+      </c>
+      <c r="G23">
+        <v>-0.0125962148605904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06680330611275341</v>
+        <v>0.06622993235121906</v>
       </c>
       <c r="C24">
-        <v>-0.1375065351171189</v>
+        <v>0.1359232561874449</v>
       </c>
       <c r="D24">
-        <v>0.06376016519824694</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05769523720466685</v>
+      </c>
+      <c r="E24">
+        <v>0.01232394001727762</v>
+      </c>
+      <c r="F24">
+        <v>0.07588471126201532</v>
+      </c>
+      <c r="G24">
+        <v>-0.01302161146037178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07234398931998809</v>
+        <v>0.07071304500987831</v>
       </c>
       <c r="C25">
-        <v>-0.1211977645456636</v>
+        <v>0.1197226496904353</v>
       </c>
       <c r="D25">
-        <v>0.04954467705990291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.04125527611940558</v>
+      </c>
+      <c r="E25">
+        <v>-0.01649390353599369</v>
+      </c>
+      <c r="F25">
+        <v>0.09012026630307984</v>
+      </c>
+      <c r="G25">
+        <v>-0.01658208685073761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05556461088888934</v>
+        <v>0.06024849519100892</v>
       </c>
       <c r="C26">
-        <v>-0.0664214319509298</v>
+        <v>0.06771560773417408</v>
       </c>
       <c r="D26">
-        <v>0.02600568527506745</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02257935309269954</v>
+      </c>
+      <c r="E26">
+        <v>0.01202290385949002</v>
+      </c>
+      <c r="F26">
+        <v>0.0801501357319138</v>
+      </c>
+      <c r="G26">
+        <v>9.839345266761486e-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1705649468733973</v>
+        <v>0.1728845200205576</v>
       </c>
       <c r="C28">
-        <v>0.227533004631017</v>
+        <v>-0.2289491943971524</v>
       </c>
       <c r="D28">
-        <v>-0.01822727179647347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02438085127855332</v>
+      </c>
+      <c r="E28">
+        <v>-0.0626912953046818</v>
+      </c>
+      <c r="F28">
+        <v>0.1298648926813627</v>
+      </c>
+      <c r="G28">
+        <v>0.007444088130887844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02414863114845199</v>
+        <v>0.02708117679949488</v>
       </c>
       <c r="C29">
-        <v>-0.04658156079066068</v>
+        <v>0.04421797388166736</v>
       </c>
       <c r="D29">
-        <v>0.01131683449271165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.007172103934712909</v>
+      </c>
+      <c r="E29">
+        <v>0.02655950491540115</v>
+      </c>
+      <c r="F29">
+        <v>0.07682008254542537</v>
+      </c>
+      <c r="G29">
+        <v>-0.0003942075845044103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04015914923556831</v>
+        <v>0.04239190261708782</v>
       </c>
       <c r="C30">
-        <v>-0.06931551093589661</v>
+        <v>0.07670762735807952</v>
       </c>
       <c r="D30">
-        <v>0.1235445992846112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1110003897464091</v>
+      </c>
+      <c r="E30">
+        <v>-0.05743536140844409</v>
+      </c>
+      <c r="F30">
+        <v>0.07547589356907458</v>
+      </c>
+      <c r="G30">
+        <v>0.02374092904384254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0521153929547629</v>
+        <v>0.05148219366163351</v>
       </c>
       <c r="C31">
-        <v>-0.03142678113200028</v>
+        <v>0.0347522639751941</v>
       </c>
       <c r="D31">
-        <v>0.01111845670290273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01394086046130692</v>
+      </c>
+      <c r="E31">
+        <v>0.03605205218957357</v>
+      </c>
+      <c r="F31">
+        <v>0.01551462225277492</v>
+      </c>
+      <c r="G31">
+        <v>-0.02651003968682862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04386191556049375</v>
+        <v>0.04836867684536507</v>
       </c>
       <c r="C32">
-        <v>-0.04789652903183141</v>
+        <v>0.04506856774171011</v>
       </c>
       <c r="D32">
-        <v>0.02087492665868384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.02203910607970521</v>
+      </c>
+      <c r="E32">
+        <v>0.03359726263539594</v>
+      </c>
+      <c r="F32">
+        <v>0.004759606756460019</v>
+      </c>
+      <c r="G32">
+        <v>0.01014049905967092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07827600224567331</v>
+        <v>0.08213032518247891</v>
       </c>
       <c r="C33">
-        <v>-0.1076805638443614</v>
+        <v>0.1171699796390069</v>
       </c>
       <c r="D33">
-        <v>0.06803708800305983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06891557685105011</v>
+      </c>
+      <c r="E33">
+        <v>0.02023770034687476</v>
+      </c>
+      <c r="F33">
+        <v>0.07685578646016439</v>
+      </c>
+      <c r="G33">
+        <v>-0.006400318593311992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05540661336275399</v>
+        <v>0.05526457036361763</v>
       </c>
       <c r="C34">
-        <v>-0.1220674077721102</v>
+        <v>0.1239481189018081</v>
       </c>
       <c r="D34">
-        <v>0.08206763074131862</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.06822418771057952</v>
+      </c>
+      <c r="E34">
+        <v>-0.01676613349172523</v>
+      </c>
+      <c r="F34">
+        <v>0.0855804456894512</v>
+      </c>
+      <c r="G34">
+        <v>0.01732003578014519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02731291325732196</v>
+        <v>0.02911576136733571</v>
       </c>
       <c r="C35">
-        <v>-0.01547726694595413</v>
+        <v>0.01684252724059045</v>
       </c>
       <c r="D35">
-        <v>0.02578150413456002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02138661007924214</v>
+      </c>
+      <c r="E35">
+        <v>0.02242130305996155</v>
+      </c>
+      <c r="F35">
+        <v>0.03679903272457369</v>
+      </c>
+      <c r="G35">
+        <v>0.02494673736428368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02247952616453277</v>
+        <v>0.027198622334029</v>
       </c>
       <c r="C36">
-        <v>-0.04723441035811884</v>
+        <v>0.04809299224663018</v>
       </c>
       <c r="D36">
-        <v>0.06489814160753961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.05544708157914181</v>
+      </c>
+      <c r="E36">
+        <v>0.01797876934621503</v>
+      </c>
+      <c r="F36">
+        <v>0.03722196918290146</v>
+      </c>
+      <c r="G36">
+        <v>0.07787421240815409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003485242720418763</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006440194642173069</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-7.105911532793414e-06</v>
+      </c>
+      <c r="E37">
+        <v>0.002292295562136705</v>
+      </c>
+      <c r="F37">
+        <v>0.009826953642661257</v>
+      </c>
+      <c r="G37">
+        <v>-0.005517416449000863</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08443706767974044</v>
+        <v>0.07869541261372279</v>
       </c>
       <c r="C39">
-        <v>-0.1524841157363438</v>
+        <v>0.1478549437929257</v>
       </c>
       <c r="D39">
-        <v>0.0476028652638336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04058334186925698</v>
+      </c>
+      <c r="E39">
+        <v>0.01648260923960203</v>
+      </c>
+      <c r="F39">
+        <v>0.1230043573753925</v>
+      </c>
+      <c r="G39">
+        <v>-0.05146141366104089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04530590215169743</v>
+        <v>0.05098759365150223</v>
       </c>
       <c r="C40">
-        <v>-0.06048477994385997</v>
+        <v>0.06497531366642716</v>
       </c>
       <c r="D40">
-        <v>0.01492963903102263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.008672780697864734</v>
+      </c>
+      <c r="E40">
+        <v>0.00834459934901481</v>
+      </c>
+      <c r="F40">
+        <v>0.05894777210666199</v>
+      </c>
+      <c r="G40">
+        <v>0.03552110105412477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02643151851253088</v>
+        <v>0.0285417947974477</v>
       </c>
       <c r="C41">
-        <v>-0.0210151171542073</v>
+        <v>0.02182923500996743</v>
       </c>
       <c r="D41">
-        <v>-0.0085293208116024</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.007315150235115806</v>
+      </c>
+      <c r="E41">
+        <v>0.008938103078295578</v>
+      </c>
+      <c r="F41">
+        <v>-0.01198691944841633</v>
+      </c>
+      <c r="G41">
+        <v>0.01284158128258143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04213753326842411</v>
+        <v>0.04180086267109697</v>
       </c>
       <c r="C43">
-        <v>-0.03814593903302685</v>
+        <v>0.03604210425309395</v>
       </c>
       <c r="D43">
-        <v>0.002117851709140999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0009483805364416647</v>
+      </c>
+      <c r="E43">
+        <v>0.0286422471159434</v>
+      </c>
+      <c r="F43">
+        <v>0.02522813545947419</v>
+      </c>
+      <c r="G43">
+        <v>-0.004660281665435022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05666812798579207</v>
+        <v>0.06446228850646023</v>
       </c>
       <c r="C44">
-        <v>-0.07968050599786207</v>
+        <v>0.08648626932421856</v>
       </c>
       <c r="D44">
-        <v>0.2840241967466869</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.2624505105046985</v>
+      </c>
+      <c r="E44">
+        <v>-0.02998395133230575</v>
+      </c>
+      <c r="F44">
+        <v>0.1698926232517588</v>
+      </c>
+      <c r="G44">
+        <v>0.1685889991951787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-3.03690358976311e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0004152180065087514</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-6.213341545111419e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0001057229072649351</v>
+      </c>
+      <c r="F45">
+        <v>0.0001615790473843478</v>
+      </c>
+      <c r="G45">
+        <v>-0.0002503522080447871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02699524830368578</v>
+        <v>0.02712824116690281</v>
       </c>
       <c r="C46">
-        <v>-0.03219988348376883</v>
+        <v>0.03121346956284112</v>
       </c>
       <c r="D46">
-        <v>0.01284129635458263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01073265488747803</v>
+      </c>
+      <c r="E46">
+        <v>0.04008679805861217</v>
+      </c>
+      <c r="F46">
+        <v>0.06926372196442994</v>
+      </c>
+      <c r="G46">
+        <v>-0.03323492425947974</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05142333984336438</v>
+        <v>0.05083013465828882</v>
       </c>
       <c r="C47">
-        <v>-0.02266460061867751</v>
+        <v>0.02554435678478586</v>
       </c>
       <c r="D47">
-        <v>-0.0251549187712515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01753428299247091</v>
+      </c>
+      <c r="E47">
+        <v>0.05735002292387885</v>
+      </c>
+      <c r="F47">
+        <v>-0.01276561649032799</v>
+      </c>
+      <c r="G47">
+        <v>-0.03356274200863821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04687825908602267</v>
+        <v>0.05013295327962612</v>
       </c>
       <c r="C48">
-        <v>-0.06761190041277136</v>
+        <v>0.06646823477028548</v>
       </c>
       <c r="D48">
-        <v>0.0244432073906644</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02177716679620467</v>
+      </c>
+      <c r="E48">
+        <v>-0.01388114633663531</v>
+      </c>
+      <c r="F48">
+        <v>0.05428333168834265</v>
+      </c>
+      <c r="G48">
+        <v>-0.0231982237735244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.194714547223143</v>
+        <v>0.1973749644576325</v>
       </c>
       <c r="C49">
-        <v>0.01092367213953101</v>
+        <v>-0.003165095762521185</v>
       </c>
       <c r="D49">
-        <v>0.03204256610841647</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04137085951005942</v>
+      </c>
+      <c r="E49">
+        <v>-0.0271306160705714</v>
+      </c>
+      <c r="F49">
+        <v>-0.05876968817390812</v>
+      </c>
+      <c r="G49">
+        <v>0.00584313351774894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05016679950225058</v>
+        <v>0.05181685858367946</v>
       </c>
       <c r="C50">
-        <v>-0.02878560694776896</v>
+        <v>0.03211388980887651</v>
       </c>
       <c r="D50">
-        <v>0.01975578794337014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02478114948812276</v>
+      </c>
+      <c r="E50">
+        <v>0.02633109933918755</v>
+      </c>
+      <c r="F50">
+        <v>0.008482421390723541</v>
+      </c>
+      <c r="G50">
+        <v>-0.02566478972905288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1445276687616208</v>
+        <v>0.1378966975092394</v>
       </c>
       <c r="C52">
-        <v>-0.03479807994886496</v>
+        <v>0.03513558889450911</v>
       </c>
       <c r="D52">
-        <v>0.05835121184151833</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.05765295710060465</v>
+      </c>
+      <c r="E52">
+        <v>0.02493734711266142</v>
+      </c>
+      <c r="F52">
+        <v>-0.06603073396514236</v>
+      </c>
+      <c r="G52">
+        <v>-0.03530233306592079</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1742787015095896</v>
+        <v>0.1654845770008436</v>
       </c>
       <c r="C53">
-        <v>-0.0007248019154640752</v>
+        <v>0.004151199109660083</v>
       </c>
       <c r="D53">
-        <v>0.09714890095732837</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.1041017728728825</v>
+      </c>
+      <c r="E53">
+        <v>0.01686360331029235</v>
+      </c>
+      <c r="F53">
+        <v>-0.1105785971479915</v>
+      </c>
+      <c r="G53">
+        <v>-0.06925037781614039</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01129425885150028</v>
+        <v>0.01495948297032219</v>
       </c>
       <c r="C54">
-        <v>-0.03151175378590734</v>
+        <v>0.03173475843309524</v>
       </c>
       <c r="D54">
-        <v>0.0192228112081677</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01835857121460621</v>
+      </c>
+      <c r="E54">
+        <v>0.01942974330641504</v>
+      </c>
+      <c r="F54">
+        <v>0.056262274969194</v>
+      </c>
+      <c r="G54">
+        <v>-0.0001527654198663054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1202862903758358</v>
+        <v>0.1167167473132003</v>
       </c>
       <c r="C55">
-        <v>-0.00528424253470582</v>
+        <v>0.01129778977343456</v>
       </c>
       <c r="D55">
-        <v>0.06389381213236135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06701712193713023</v>
+      </c>
+      <c r="E55">
+        <v>0.04775713629675431</v>
+      </c>
+      <c r="F55">
+        <v>-0.03305728085207201</v>
+      </c>
+      <c r="G55">
+        <v>-0.07453618816823014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1812682701998175</v>
+        <v>0.173376456802616</v>
       </c>
       <c r="C56">
-        <v>0.007337128335061918</v>
+        <v>-0.005927219325608533</v>
       </c>
       <c r="D56">
-        <v>0.04310033356856033</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05354316340258692</v>
+      </c>
+      <c r="E56">
+        <v>0.03838344790644369</v>
+      </c>
+      <c r="F56">
+        <v>-0.144406698062888</v>
+      </c>
+      <c r="G56">
+        <v>-0.07101777242572883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04487705930667846</v>
+        <v>0.04499078727970018</v>
       </c>
       <c r="C58">
-        <v>-0.09325824264932099</v>
+        <v>0.1006599546803014</v>
       </c>
       <c r="D58">
-        <v>-0.0058478406090593</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.001491096201465498</v>
+      </c>
+      <c r="E58">
+        <v>0.04796753852902687</v>
+      </c>
+      <c r="F58">
+        <v>0.04306975880852398</v>
+      </c>
+      <c r="G58">
+        <v>-0.02241789379948585</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1863165338034935</v>
+        <v>0.1893365697018715</v>
       </c>
       <c r="C59">
-        <v>0.1783556427593591</v>
+        <v>-0.1826916995457881</v>
       </c>
       <c r="D59">
-        <v>-0.07863160843520665</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07965208139125186</v>
+      </c>
+      <c r="E59">
+        <v>0.002255065961810045</v>
+      </c>
+      <c r="F59">
+        <v>0.05680670616952464</v>
+      </c>
+      <c r="G59">
+        <v>-0.03974920535778447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2160131892240494</v>
+        <v>0.2107781830498832</v>
       </c>
       <c r="C60">
-        <v>-0.01198097363954593</v>
+        <v>0.01865425097857487</v>
       </c>
       <c r="D60">
-        <v>-0.06561233371644064</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04584884402406381</v>
+      </c>
+      <c r="E60">
+        <v>0.01029650428317005</v>
+      </c>
+      <c r="F60">
+        <v>-0.2067376232739334</v>
+      </c>
+      <c r="G60">
+        <v>-0.07794380434698357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06486147032160397</v>
+        <v>0.06211797850308994</v>
       </c>
       <c r="C61">
-        <v>-0.1228753612511133</v>
+        <v>0.120665527396696</v>
       </c>
       <c r="D61">
-        <v>0.03721003522745009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03001394525643845</v>
+      </c>
+      <c r="E61">
+        <v>0.02721472114288748</v>
+      </c>
+      <c r="F61">
+        <v>0.08445531998128798</v>
+      </c>
+      <c r="G61">
+        <v>-0.02449374096113442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1677076689395844</v>
+        <v>0.1641308205461179</v>
       </c>
       <c r="C62">
-        <v>0.0115991765498319</v>
+        <v>-0.008354123240643396</v>
       </c>
       <c r="D62">
-        <v>0.0353608804441448</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04719569160912608</v>
+      </c>
+      <c r="E62">
+        <v>0.03754674105375398</v>
+      </c>
+      <c r="F62">
+        <v>-0.1154204261942106</v>
+      </c>
+      <c r="G62">
+        <v>-0.06615754678507674</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03766278970470033</v>
+        <v>0.04307297039133168</v>
       </c>
       <c r="C63">
-        <v>-0.06829530786080443</v>
+        <v>0.07197624428371627</v>
       </c>
       <c r="D63">
-        <v>0.02894816257438316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02290464015313571</v>
+      </c>
+      <c r="E63">
+        <v>0.03154760516117355</v>
+      </c>
+      <c r="F63">
+        <v>0.05119496547905653</v>
+      </c>
+      <c r="G63">
+        <v>0.02445853568334578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1109954241997305</v>
+        <v>0.1092731490998891</v>
       </c>
       <c r="C64">
-        <v>-0.04887954805664189</v>
+        <v>0.05319354519735309</v>
       </c>
       <c r="D64">
-        <v>0.03569328047414579</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03967319919309525</v>
+      </c>
+      <c r="E64">
+        <v>0.0153166072490943</v>
+      </c>
+      <c r="F64">
+        <v>-0.033977556850642</v>
+      </c>
+      <c r="G64">
+        <v>-0.005052467345094878</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1571383413647284</v>
+        <v>0.1606046294552432</v>
       </c>
       <c r="C65">
-        <v>0.06013435327285144</v>
+        <v>-0.0490665040976289</v>
       </c>
       <c r="D65">
-        <v>0.04793102213184106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05511116560084406</v>
+      </c>
+      <c r="E65">
+        <v>-0.004307137530779524</v>
+      </c>
+      <c r="F65">
+        <v>-0.01490500268819879</v>
+      </c>
+      <c r="G65">
+        <v>-0.01756820151075199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1021555145148798</v>
+        <v>0.09528514239155986</v>
       </c>
       <c r="C66">
-        <v>-0.1298186069589527</v>
+        <v>0.1300598888467618</v>
       </c>
       <c r="D66">
-        <v>0.04832488344492582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03814796009909387</v>
+      </c>
+      <c r="E66">
+        <v>0.01028615491106465</v>
+      </c>
+      <c r="F66">
+        <v>0.1021137463012715</v>
+      </c>
+      <c r="G66">
+        <v>-0.005493119879969733</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05750604306275445</v>
+        <v>0.04855363468892164</v>
       </c>
       <c r="C67">
-        <v>-0.08001928649618673</v>
+        <v>0.07342767186609261</v>
       </c>
       <c r="D67">
-        <v>-0.05074409173437454</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05301428806409186</v>
+      </c>
+      <c r="E67">
+        <v>0.07841007773901261</v>
+      </c>
+      <c r="F67">
+        <v>-0.03261029615567771</v>
+      </c>
+      <c r="G67">
+        <v>-0.003110347610761906</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1391389451891749</v>
+        <v>0.1417568816051581</v>
       </c>
       <c r="C68">
-        <v>0.2463457538835075</v>
+        <v>-0.2497803503847576</v>
       </c>
       <c r="D68">
-        <v>-0.03877685405640048</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03956194621796121</v>
+      </c>
+      <c r="E68">
+        <v>-0.1052036879656813</v>
+      </c>
+      <c r="F68">
+        <v>0.115014486565925</v>
+      </c>
+      <c r="G68">
+        <v>-0.02264465172480302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03894051868753069</v>
+        <v>0.03848304646137207</v>
       </c>
       <c r="C69">
-        <v>-0.01207719082454814</v>
+        <v>0.01423722548129621</v>
       </c>
       <c r="D69">
-        <v>0.003677161376419127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007063232716743431</v>
+      </c>
+      <c r="E69">
+        <v>0.06320253450889758</v>
+      </c>
+      <c r="F69">
+        <v>-0.04294606874989196</v>
+      </c>
+      <c r="G69">
+        <v>0.02140950780088534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.06998917865020331</v>
+        <v>0.07149584181801188</v>
       </c>
       <c r="C70">
-        <v>-0.08044695131375196</v>
+        <v>0.07438630341397992</v>
       </c>
       <c r="D70">
-        <v>-0.5303888594968332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.4292539240106426</v>
+      </c>
+      <c r="E70">
+        <v>0.1878015236623732</v>
+      </c>
+      <c r="F70">
+        <v>-0.3671953642296249</v>
+      </c>
+      <c r="G70">
+        <v>-0.415878514481208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1613838431111756</v>
+        <v>0.1653184618714645</v>
       </c>
       <c r="C71">
-        <v>0.2534659684744583</v>
+        <v>-0.2542098195993086</v>
       </c>
       <c r="D71">
-        <v>-0.03922412212129175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0425284373358355</v>
+      </c>
+      <c r="E71">
+        <v>-0.1154837335177283</v>
+      </c>
+      <c r="F71">
+        <v>0.1162902605258642</v>
+      </c>
+      <c r="G71">
+        <v>-0.02479816281320621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1431943544298233</v>
+        <v>0.1482205628997994</v>
       </c>
       <c r="C72">
-        <v>-0.01029579313976024</v>
+        <v>0.008527592263855455</v>
       </c>
       <c r="D72">
-        <v>0.07302708064142634</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06512595865345591</v>
+      </c>
+      <c r="E72">
+        <v>0.04162135221304507</v>
+      </c>
+      <c r="F72">
+        <v>-0.01984228168603841</v>
+      </c>
+      <c r="G72">
+        <v>0.006385482784608658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1919275018144452</v>
+        <v>0.2000183496657248</v>
       </c>
       <c r="C73">
-        <v>-0.01909907027358016</v>
+        <v>0.02901259732536191</v>
       </c>
       <c r="D73">
-        <v>0.05616698257731629</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06355655309835606</v>
+      </c>
+      <c r="E73">
+        <v>0.06990242392153637</v>
+      </c>
+      <c r="F73">
+        <v>-0.1061793872119134</v>
+      </c>
+      <c r="G73">
+        <v>0.02288667771723318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08629814405368487</v>
+        <v>0.08546939229816559</v>
       </c>
       <c r="C74">
-        <v>-0.002823652173218746</v>
+        <v>0.009779973061132711</v>
       </c>
       <c r="D74">
-        <v>0.0715279613554998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07736685468200359</v>
+      </c>
+      <c r="E74">
+        <v>0.02574495347653432</v>
+      </c>
+      <c r="F74">
+        <v>-0.06490737273109114</v>
+      </c>
+      <c r="G74">
+        <v>-0.000172982343530029</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1240598799205003</v>
+        <v>0.1162702087483945</v>
       </c>
       <c r="C75">
-        <v>-0.01819344433120767</v>
+        <v>0.02218558602215098</v>
       </c>
       <c r="D75">
-        <v>0.05525032191330732</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.05625462904597991</v>
+      </c>
+      <c r="E75">
+        <v>0.06095878672770845</v>
+      </c>
+      <c r="F75">
+        <v>-0.05836761791186384</v>
+      </c>
+      <c r="G75">
+        <v>-0.04851155324307026</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07174989462222259</v>
+        <v>0.08634465456004226</v>
       </c>
       <c r="C77">
-        <v>-0.1144997974351237</v>
+        <v>0.1128121033781548</v>
       </c>
       <c r="D77">
-        <v>0.07065151137893327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07524407072192035</v>
+      </c>
+      <c r="E77">
+        <v>-0.009024332064954158</v>
+      </c>
+      <c r="F77">
+        <v>0.08176632372112097</v>
+      </c>
+      <c r="G77">
+        <v>-0.1061239212442501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08894278648129635</v>
+        <v>0.09313272191972465</v>
       </c>
       <c r="C78">
-        <v>-0.1290774341044728</v>
+        <v>0.1282196795545297</v>
       </c>
       <c r="D78">
-        <v>0.08231351142376446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06322622999790752</v>
+      </c>
+      <c r="E78">
+        <v>-0.008387377471847406</v>
+      </c>
+      <c r="F78">
+        <v>0.1207947211082295</v>
+      </c>
+      <c r="G78">
+        <v>-0.09034888852356518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1676678881687116</v>
+        <v>0.1626085466480649</v>
       </c>
       <c r="C79">
-        <v>-0.01620636054009232</v>
+        <v>0.01718620677257011</v>
       </c>
       <c r="D79">
-        <v>0.02934899788829509</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03214888476725247</v>
+      </c>
+      <c r="E79">
+        <v>0.03854336579127302</v>
+      </c>
+      <c r="F79">
+        <v>-0.0504345324909927</v>
+      </c>
+      <c r="G79">
+        <v>-0.04769268987478026</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07511619928436845</v>
+        <v>0.07300425826384919</v>
       </c>
       <c r="C80">
-        <v>-0.05852232346852791</v>
+        <v>0.05717858399573617</v>
       </c>
       <c r="D80">
-        <v>0.01337478033417694</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.002323217807942095</v>
+      </c>
+      <c r="E80">
+        <v>0.0533375996193178</v>
+      </c>
+      <c r="F80">
+        <v>0.1168123189979491</v>
+      </c>
+      <c r="G80">
+        <v>0.09668124310837833</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1105614706709601</v>
+        <v>0.1044857633989984</v>
       </c>
       <c r="C81">
-        <v>0.01701378511823533</v>
+        <v>-0.01341749735161686</v>
       </c>
       <c r="D81">
-        <v>0.0251828028314589</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02901099212696993</v>
+      </c>
+      <c r="E81">
+        <v>0.06037705163703633</v>
+      </c>
+      <c r="F81">
+        <v>-0.06192142131266101</v>
+      </c>
+      <c r="G81">
+        <v>-0.01649504368105129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1607909697725508</v>
+        <v>0.1571026307749037</v>
       </c>
       <c r="C82">
-        <v>0.02487038947185471</v>
+        <v>-0.01882482109604705</v>
       </c>
       <c r="D82">
-        <v>0.08760736528524675</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09511184146207689</v>
+      </c>
+      <c r="E82">
+        <v>0.008547182609263166</v>
+      </c>
+      <c r="F82">
+        <v>-0.1031724532396202</v>
+      </c>
+      <c r="G82">
+        <v>-0.003384050306741364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05325008996596035</v>
+        <v>0.0492695310874976</v>
       </c>
       <c r="C83">
-        <v>-0.06030198241701154</v>
+        <v>0.05623212941469048</v>
       </c>
       <c r="D83">
-        <v>-0.009293879785277435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01120409444898137</v>
+      </c>
+      <c r="E83">
+        <v>0.01114290703993912</v>
+      </c>
+      <c r="F83">
+        <v>0.007003523208867247</v>
+      </c>
+      <c r="G83">
+        <v>-0.01614849401677784</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05077626086077281</v>
+        <v>0.04798814941043419</v>
       </c>
       <c r="C84">
-        <v>-0.07274224846356039</v>
+        <v>0.07038475739306232</v>
       </c>
       <c r="D84">
-        <v>0.002306472138053862</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.00231607399268465</v>
+      </c>
+      <c r="E84">
+        <v>0.01016629001255564</v>
+      </c>
+      <c r="F84">
+        <v>-0.01343859178756901</v>
+      </c>
+      <c r="G84">
+        <v>-0.03207674268266953</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1399046516652053</v>
+        <v>0.1341157841771481</v>
       </c>
       <c r="C85">
-        <v>-0.006333120402760593</v>
+        <v>0.009755330477277625</v>
       </c>
       <c r="D85">
-        <v>0.09195288371836469</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09108663800608358</v>
+      </c>
+      <c r="E85">
+        <v>0.02162222699382355</v>
+      </c>
+      <c r="F85">
+        <v>-0.04202759645323919</v>
+      </c>
+      <c r="G85">
+        <v>-0.03444157937230644</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08392782785302536</v>
+        <v>0.08200834510876985</v>
       </c>
       <c r="C86">
-        <v>-0.09954026523212024</v>
+        <v>0.1014527250680718</v>
       </c>
       <c r="D86">
-        <v>-0.5065326677958021</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.5782792908633547</v>
+      </c>
+      <c r="E86">
+        <v>0.4395467613988018</v>
+      </c>
+      <c r="F86">
+        <v>0.4835021814077681</v>
+      </c>
+      <c r="G86">
+        <v>0.08048736210910069</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08911467637167825</v>
+        <v>0.08781281256596364</v>
       </c>
       <c r="C87">
-        <v>-0.08616685652143749</v>
+        <v>0.08736871016955582</v>
       </c>
       <c r="D87">
-        <v>0.05628560936389581</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04420151259182036</v>
+      </c>
+      <c r="E87">
+        <v>-0.09758949145866537</v>
+      </c>
+      <c r="F87">
+        <v>0.09061439765796986</v>
+      </c>
+      <c r="G87">
+        <v>0.06489970644550908</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06060448412309406</v>
+        <v>0.06016018413967628</v>
       </c>
       <c r="C88">
-        <v>-0.05888748492863654</v>
+        <v>0.05967392795218499</v>
       </c>
       <c r="D88">
-        <v>0.01414728468397192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01683699075608767</v>
+      </c>
+      <c r="E88">
+        <v>0.01506768645611076</v>
+      </c>
+      <c r="F88">
+        <v>-0.02652724478775147</v>
+      </c>
+      <c r="G88">
+        <v>-0.01504258576488313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1476881751306859</v>
+        <v>0.1497018785747976</v>
       </c>
       <c r="C89">
-        <v>0.1945185181945567</v>
+        <v>-0.2069650094644967</v>
       </c>
       <c r="D89">
-        <v>-0.01651840210755371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02611935106238301</v>
+      </c>
+      <c r="E89">
+        <v>-0.09273915108916866</v>
+      </c>
+      <c r="F89">
+        <v>0.09016072358803601</v>
+      </c>
+      <c r="G89">
+        <v>0.004546735810021969</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1755602205881012</v>
+        <v>0.1824179719213916</v>
       </c>
       <c r="C90">
-        <v>0.2293278498802827</v>
+        <v>-0.2382534683683943</v>
       </c>
       <c r="D90">
-        <v>-0.05287998582369913</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.06050151502673069</v>
+      </c>
+      <c r="E90">
+        <v>-0.1431047699857022</v>
+      </c>
+      <c r="F90">
+        <v>0.1347883182761146</v>
+      </c>
+      <c r="G90">
+        <v>-0.006154808601115683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1262716997149476</v>
+        <v>0.1204542987575912</v>
       </c>
       <c r="C91">
-        <v>0.02281147336914502</v>
+        <v>-0.02052258946708127</v>
       </c>
       <c r="D91">
-        <v>0.02101466714393979</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02064279046639364</v>
+      </c>
+      <c r="E91">
+        <v>0.0932753549075787</v>
+      </c>
+      <c r="F91">
+        <v>-0.09136363409101479</v>
+      </c>
+      <c r="G91">
+        <v>-0.001897687387996994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1696843731728805</v>
+        <v>0.172283444612797</v>
       </c>
       <c r="C92">
-        <v>0.26542093751237</v>
+        <v>-0.2778237507363641</v>
       </c>
       <c r="D92">
-        <v>-0.05370968889349412</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.05023833982672226</v>
+      </c>
+      <c r="E92">
+        <v>-0.1004411980791423</v>
+      </c>
+      <c r="F92">
+        <v>0.177505288061773</v>
+      </c>
+      <c r="G92">
+        <v>-0.06417771415118231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1764651867232956</v>
+        <v>0.1837947582150784</v>
       </c>
       <c r="C93">
-        <v>0.2225822800006476</v>
+        <v>-0.229909378406666</v>
       </c>
       <c r="D93">
-        <v>-0.02926066188236065</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02904508465431891</v>
+      </c>
+      <c r="E93">
+        <v>-0.06962140201363616</v>
+      </c>
+      <c r="F93">
+        <v>0.09024870789638324</v>
+      </c>
+      <c r="G93">
+        <v>-0.06514551600459639</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1194058531903451</v>
+        <v>0.1136399771310688</v>
       </c>
       <c r="C94">
-        <v>-0.03239107547891052</v>
+        <v>0.0330783912939005</v>
       </c>
       <c r="D94">
-        <v>0.04867369943885198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04871327055984847</v>
+      </c>
+      <c r="E94">
+        <v>0.06121224747906611</v>
+      </c>
+      <c r="F94">
+        <v>-0.05671682948996379</v>
+      </c>
+      <c r="G94">
+        <v>-0.04273102830021706</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1206178851268362</v>
+        <v>0.1228154798489757</v>
       </c>
       <c r="C95">
-        <v>-0.10913331985387</v>
+        <v>0.1163596794102574</v>
       </c>
       <c r="D95">
-        <v>0.001374401754258356</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.006219849136066929</v>
+      </c>
+      <c r="E95">
+        <v>0.05160743163687034</v>
+      </c>
+      <c r="F95">
+        <v>0.0468192929939797</v>
+      </c>
+      <c r="G95">
+        <v>-0.005038705882841395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1242158759412203</v>
+        <v>0.1217865173415395</v>
       </c>
       <c r="C96">
-        <v>-0.1187659895292389</v>
+        <v>0.1267340466100511</v>
       </c>
       <c r="D96">
-        <v>-0.06527577517282393</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.03162544469764941</v>
+      </c>
+      <c r="E96">
+        <v>0.07826219142473011</v>
+      </c>
+      <c r="F96">
+        <v>-0.1554442815827576</v>
+      </c>
+      <c r="G96">
+        <v>-0.04882710541780196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1929880027681249</v>
+        <v>0.1971991315847834</v>
       </c>
       <c r="C97">
-        <v>0.002407412986961897</v>
+        <v>-0.003758201446328731</v>
       </c>
       <c r="D97">
-        <v>-0.1277786421907364</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1643506762290119</v>
+      </c>
+      <c r="E97">
+        <v>0.1019303776225138</v>
+      </c>
+      <c r="F97">
+        <v>-0.2891938289536425</v>
+      </c>
+      <c r="G97">
+        <v>0.8263936134701901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1987829465427982</v>
+        <v>0.2041615540240462</v>
       </c>
       <c r="C98">
-        <v>-0.02636061951717258</v>
+        <v>0.03168370324332438</v>
       </c>
       <c r="D98">
-        <v>-0.1140900034458088</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.102685842822803</v>
+      </c>
+      <c r="E98">
+        <v>-0.03279239935915539</v>
+      </c>
+      <c r="F98">
+        <v>-0.09345536366836581</v>
+      </c>
+      <c r="G98">
+        <v>-0.008258228318628756</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05337938572323538</v>
+        <v>0.05304798662277476</v>
       </c>
       <c r="C99">
-        <v>-0.05217617541218672</v>
+        <v>0.05391980020991297</v>
       </c>
       <c r="D99">
-        <v>0.009682648450228317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.008764102364936435</v>
+      </c>
+      <c r="E99">
+        <v>0.001039011405894827</v>
+      </c>
+      <c r="F99">
+        <v>0.04156377800525327</v>
+      </c>
+      <c r="G99">
+        <v>0.009022286791310327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1161406406399867</v>
+        <v>0.1085693888144146</v>
       </c>
       <c r="C100">
-        <v>-0.4144051362612535</v>
+        <v>0.3761156404621346</v>
       </c>
       <c r="D100">
-        <v>-0.3793129906420993</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.4227582576229881</v>
+      </c>
+      <c r="E100">
+        <v>-0.7479382311602633</v>
+      </c>
+      <c r="F100">
+        <v>-0.03816669061956474</v>
+      </c>
+      <c r="G100">
+        <v>0.0311551251172811</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02408374394261386</v>
+        <v>0.02702447954739566</v>
       </c>
       <c r="C101">
-        <v>-0.04612981244956506</v>
+        <v>0.04373064659347427</v>
       </c>
       <c r="D101">
-        <v>0.007009402617340306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.003939273717586843</v>
+      </c>
+      <c r="E101">
+        <v>0.02758577502762079</v>
+      </c>
+      <c r="F101">
+        <v>0.07173912342002556</v>
+      </c>
+      <c r="G101">
+        <v>-0.003573461110665389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
